--- a/biology/Médecine/Bétaméthasone/Bétaméthasone.xlsx
+++ b/biology/Médecine/Bétaméthasone/Bétaméthasone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9tam%C3%A9thasone</t>
+          <t>Bétaméthasone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bétaméthasone est un corticoïde aux propriétés anti-inflammatoires puissantes. Son utilisation à forte dose permet aussi la réduction de la réponse immunitaire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9tam%C3%A9thasone</t>
+          <t>Bétaméthasone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un stéréoisomère de la dexaméthasone.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9tam%C3%A9thasone</t>
+          <t>Bétaméthasone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Présentation des spécialités pharmaceutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle est disponible en formes :
 orales,
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9tam%C3%A9thasone</t>
+          <t>Bétaméthasone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bétaméthasone fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bétaméthasone fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
